--- a/Documents/Control Architecture/HV-LV DCDC Control Architecture.xlsx
+++ b/Documents/Control Architecture/HV-LV DCDC Control Architecture.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>ISR Tasks</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Filtering of ADC signals</t>
   </si>
   <si>
+    <t>Negative Current Protection</t>
+  </si>
+  <si>
     <t>LLC Control (Frequency control)</t>
   </si>
   <si>
@@ -187,7 +190,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Output Current OCP</t>
+    <t>Output Voltage HW OVP</t>
   </si>
   <si>
     <t>No</t>
@@ -196,10 +199,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>Output Voltage OVP</t>
-  </si>
-  <si>
-    <t>Output Voltage HW OVP</t>
+    <t>Output Voltage SW OVP</t>
+  </si>
+  <si>
+    <t>Output Current HW OCP</t>
+  </si>
+  <si>
+    <t>Output Current SW OCP</t>
   </si>
   <si>
     <t>LLC Secondary Heatsink 1 OTP</t>
@@ -221,6 +227,9 @@
   </si>
   <si>
     <t>Active High</t>
+  </si>
+  <si>
+    <t>Internal Comms Lost</t>
   </si>
 </sst>
 </file>
@@ -668,23 +677,26 @@
       </c>
     </row>
     <row r="34">
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="E34" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -714,57 +726,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4">
         <v>100.0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
         <v>2.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" ref="F2:F4" si="1">$C$5+$C$3</f>
         <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="2">$C$5+$C$3</f>
         <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L4" si="3">$C$5+$C$3</f>
@@ -773,30 +785,30 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
         <v>21.0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="3"/>
@@ -805,30 +817,30 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4">
         <v>23.0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" si="3"/>
@@ -837,10 +849,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
         <v>8.0</v>
@@ -862,7 +874,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>1.0</v>
@@ -876,10 +888,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="9">
         <f>$C$1/$C$7</f>
@@ -894,10 +906,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9">
         <f>-sum(F2:F3)/C1*C8</f>
@@ -944,24 +956,24 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" s="7">
         <f>($C$4-$C$3)</f>
         <v>2</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7">
         <f>($C$4-$C$3)</f>
         <v>2</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L14" s="7">
         <f>($C$4-$C$3)</f>
@@ -994,21 +1006,21 @@
     </row>
     <row r="18">
       <c r="E18" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="12">
         <f>Sum(F2:F17)+F14</f>
         <v>91</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" s="12">
         <f>Sum(I2:I17)+I14</f>
         <v>91</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L18" s="12">
         <f>Sum(L2:L17)+L14</f>
@@ -1017,21 +1029,21 @@
     </row>
     <row r="20">
       <c r="E20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <f>F18*(1/$C$1)</f>
         <v>0.91</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I20" s="1">
         <f>I18*(1/$C$1)</f>
         <v>0.91</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L20" s="1">
         <f>L18*(1/$C$1)</f>
@@ -1064,10 +1076,10 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1093,31 +1105,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1143,7 +1155,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>100.0</v>
@@ -1157,7 +1169,7 @@
         <v>15915.49431</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4">
         <v>70000.0</v>
@@ -1176,7 +1188,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>100.0</v>
@@ -1190,7 +1202,7 @@
         <v>15915.49431</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4">
         <v>70000.0</v>
@@ -1209,7 +1221,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>100.0</v>
@@ -1223,7 +1235,7 @@
         <v>15915.49431</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4">
         <v>70000.0</v>
@@ -1242,7 +1254,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4">
         <v>100.0</v>
@@ -1256,7 +1268,7 @@
         <v>15915.49431</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4">
         <v>70000.0</v>
@@ -1275,7 +1287,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4">
         <v>10000.0</v>
@@ -1289,7 +1301,7 @@
         <v>15.91549431</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4">
         <v>1000.0</v>
@@ -1309,7 +1321,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
         <v>10000.0</v>
@@ -1323,7 +1335,7 @@
         <v>15.91549431</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4">
         <v>1000.0</v>
@@ -1343,7 +1355,7 @@
     </row>
     <row r="10">
       <c r="B10" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="18"/>
     </row>
@@ -1376,110 +1388,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>59</v>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
-        <v>61</v>
+      <c r="A4" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
-        <v>62</v>
+      <c r="A5" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="4">
-        <v>90.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>100.0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4">
         <v>90.0</v>
@@ -1489,56 +1497,78 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>64</v>
+      <c r="A7" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4">
+        <v>90.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="s">
+      <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="22"/>
+      <c r="A10" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="22"/>
@@ -1564,8 +1594,11 @@
     <row r="18">
       <c r="A18" s="22"/>
     </row>
+    <row r="19">
+      <c r="A19" s="22"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:F8">
+  <conditionalFormatting sqref="C2:F9">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
